--- a/Daten/Schulferien/Ferien89_90.xlsx
+++ b/Daten/Schulferien/Ferien89_90.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_19FFFA1732C220D5CF7A4CE609860191795965E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A097B7B1-9436-4846-8AD3-DDD4FD40D411}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,63 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekretariat der Ständigen Konferenz 
-der Kultusminister der Länder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIEN IM SCHULJAHR 1989/90</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">in der Bundesrepublik Deutschland 
-Lennéstr. 6, 53113 Bonn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in den Ländern in der</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel: 0228/501-660 Fax: 0228/501-777 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bundesrepublik Deutschland </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve">Land </t>
   </si>
@@ -130,7 +75,7 @@
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
       </rPr>
-      <t xml:space="preserve">17.04. – 21.04.</t>
+      <t>17.04. – 21.04.</t>
     </r>
     <r>
       <rPr>
@@ -579,36 +524,15 @@
   <si>
     <t/>
   </si>
-  <si>
-    <t xml:space="preserve">Stand: 10. Januar 1989 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -623,6 +547,16 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -641,15 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -786,73 +711,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1129,512 +1042,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26"/>
     <col min="2" max="2" width="36"/>
-    <col min="3" max="3" width="16"/>
-    <col min="4" max="4" width="16"/>
+    <col min="3" max="4" width="16"/>
     <col min="5" max="5" width="15"/>
     <col min="6" max="6" width="16"/>
     <col min="7" max="7" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="28" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A2" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="18" customHeight="1">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="32" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="24" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="24" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="46" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="D10" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="24" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="F11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="D12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="G12" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="11" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="E13" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="F13" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="11" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="19" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="F14" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="G14" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="16" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="E15" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="G15" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="0" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="B16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="C16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="D16" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="G16" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="0" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="B17" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="C17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="D17" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="E17" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="G17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="0" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="C18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="D18" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A19" s="0" t="s">
+      <c r="E18" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="G18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>144</v>
-      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:F3"/>
+  <mergeCells count="4">
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Daten/Schulferien/Ferien89_90.xlsx
+++ b/Daten/Schulferien/Ferien89_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_19FFFA1732C220D5CF7A4CE609860191795965E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A097B7B1-9436-4846-8AD3-DDD4FD40D411}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_19FFFA1732C220D5CF7A4CE609860191795965E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C2F838-0B7C-4794-A2C0-D37A5AD40150}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t xml:space="preserve">Land </t>
   </si>
@@ -102,24 +102,6 @@
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> 1) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
       <t xml:space="preserve">22.12. – 05.01. </t>
     </r>
     <r>
@@ -178,9 +160,6 @@
   </si>
   <si>
     <t xml:space="preserve">29.03. - 16.04. </t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t xml:space="preserve">Hamburg </t>
@@ -303,24 +282,6 @@
     <t xml:space="preserve">02.04. - 21.04. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> 4) </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Rheinland-Pfalz </t>
   </si>
   <si>
@@ -399,137 +360,17 @@
     <t>-</t>
   </si>
   <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unterrichtsfrei 30. u. 31.10., 02. u. 03.11.1989, 26.02.1990 </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterrichtsfrei 30.04.1990 </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzlich 3 bewegliche Ferientage nach Festlegung der einzelnen Schulen: erfolgt keine Festlegung, werden die Ferientage den Sommerferien 1989 (07.08.1989) und den </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfingstfeiertagen 1990 (02.06. und 05.06.1990) zugeführt. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gründonnerstag, 12.04.1990 ist unterrichtsfrei. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastnacht: 26.02. - 27.02.1990 </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
+    <t>30.10. - 03.11.</t>
+  </si>
+  <si>
+    <t>02.06. - 05.06.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -538,12 +379,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -751,17 +586,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,6 +613,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,384 +951,249 @@
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>62</v>
+      <c r="G9" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
+  <mergeCells count="1">
     <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
